--- a/Data/Configuración/Config.xlsx
+++ b/Data/Configuración/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\Documents\ALICORP_ExtractosBancariosDispatcher01\Configuración\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB778C17-89DF-41D4-9F67-00894CDE172C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBC3C3C-E37D-40A7-A112-B4A18B5C5B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="829" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="893" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="INTERBANK" sheetId="8" r:id="rId9"/>
     <sheet name="BANBIF" sheetId="4" r:id="rId10"/>
     <sheet name="SANTANDER" sheetId="9" r:id="rId11"/>
+    <sheet name="Seguridad" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="301">
   <si>
     <t>Name</t>
   </si>
@@ -463,9 +464,6 @@
     <t>dd/MM/yyyy</t>
   </si>
   <si>
-    <t>Formato de fecha para el filtro en Dynamic 365</t>
-  </si>
-  <si>
     <t>SheetsCalendar</t>
   </si>
   <si>
@@ -652,15 +650,6 @@
     <t>Observación para el proceso finalizado para ser procesado por el Performance</t>
   </si>
   <si>
-    <t>00000584</t>
-  </si>
-  <si>
-    <t>CompanyCode</t>
-  </si>
-  <si>
-    <t>Código de la empresa</t>
-  </si>
-  <si>
     <t>OrchestratorQueueNamePerformance</t>
   </si>
   <si>
@@ -680,13 +669,367 @@
   </si>
   <si>
     <t>00:00:15</t>
+  </si>
+  <si>
+    <t>No fue posible iniciar sesión en el banco BBVA</t>
+  </si>
+  <si>
+    <t>Observación para la novedad en iniciar sesión en BBVA</t>
+  </si>
+  <si>
+    <t>dd-MM-yyyy</t>
+  </si>
+  <si>
+    <t>Formato de fecha para el filtro en BCP</t>
+  </si>
+  <si>
+    <t>Formato de fecha para el filtro en BBVA</t>
+  </si>
+  <si>
+    <t>ObservationConsultedMovementHistory</t>
+  </si>
+  <si>
+    <t>No fue posible consultar el movimiento histórico</t>
+  </si>
+  <si>
+    <t>Observación para la novedad en consultar hitórico movimientos</t>
+  </si>
+  <si>
+    <t>ObservationExistMovements</t>
+  </si>
+  <si>
+    <t>Observación para la novedad en validar existencia movimientos</t>
+  </si>
+  <si>
+    <t>.ism_</t>
+  </si>
+  <si>
+    <t>CARPETAS CORREO</t>
+  </si>
+  <si>
+    <t>Extractos Bancarios RPA</t>
+  </si>
+  <si>
+    <t>Procesado</t>
+  </si>
+  <si>
+    <t>Carpeta donde se almacenan los correos requieridos para el proceso</t>
+  </si>
+  <si>
+    <t>Carpeta donde se almacenan los correos procesados del proceso</t>
+  </si>
+  <si>
+    <t>RPABankExtracts</t>
+  </si>
+  <si>
+    <t>Processed</t>
+  </si>
+  <si>
+    <t>ObservationObtainMail</t>
+  </si>
+  <si>
+    <t>No existe correos para procesar</t>
+  </si>
+  <si>
+    <t>Observación para la novedad en obtener correos</t>
+  </si>
+  <si>
+    <t>ObservationDownloadFile</t>
+  </si>
+  <si>
+    <t>Observación para la novedad en descargar archivos</t>
+  </si>
+  <si>
+    <t>ObservationMovedMailProcessed</t>
+  </si>
+  <si>
+    <t>No fue posible mover el correo a la carpeta procesado</t>
+  </si>
+  <si>
+    <t>Observación para la novedad en mover correo procesado</t>
+  </si>
+  <si>
+    <t>.XLS</t>
+  </si>
+  <si>
+    <t>¿Cuál era su apodo de la infancia?</t>
+  </si>
+  <si>
+    <t>¿Cuál fue el modelo de su primer vehículo?</t>
+  </si>
+  <si>
+    <t>¿Cuál era el nombre de su mejor amigo de la infancia?</t>
+  </si>
+  <si>
+    <t>¿Cuál fue el peor empleo que tuvo en su vida?</t>
+  </si>
+  <si>
+    <t>¿Cuál fue el nombre de su primera mascota?</t>
+  </si>
+  <si>
+    <t>Preguntas Seguridad</t>
+  </si>
+  <si>
+    <t>Banco</t>
+  </si>
+  <si>
+    <t>BOFA</t>
+  </si>
+  <si>
+    <t>Respuesta Asset</t>
+  </si>
+  <si>
+    <t>Alicorp_SeguridadBOFA1</t>
+  </si>
+  <si>
+    <t>Alicorp_SeguridadBOFA2</t>
+  </si>
+  <si>
+    <t>Alicorp_SeguridadBOFA3</t>
+  </si>
+  <si>
+    <t>Alicorp_SeguridadBOFA4</t>
+  </si>
+  <si>
+    <t>Alicorp_SeguridadBOFA5</t>
+  </si>
+  <si>
+    <t>Alicorp_SeguridadBOFA6</t>
+  </si>
+  <si>
+    <t>ObservationLoginSession</t>
+  </si>
+  <si>
+    <t>No fue posible iniciar sesión en el banco BOFA</t>
+  </si>
+  <si>
+    <t>Observación para la novedad en iniciar sesión en BOFA</t>
+  </si>
+  <si>
+    <t>¿Quién fue su héroe de la infancia?</t>
+  </si>
+  <si>
+    <t>SheetsSecurity</t>
+  </si>
+  <si>
+    <t>Seguridad</t>
+  </si>
+  <si>
+    <t>ObservationEnterSecurityQuestions</t>
+  </si>
+  <si>
+    <t>No fue posible ingresar las preguntas de seguridad</t>
+  </si>
+  <si>
+    <t>Observación para la novedad en ingresar preguntas seguridad</t>
+  </si>
+  <si>
+    <t>ObservationEnterAccountStatements</t>
+  </si>
+  <si>
+    <t>No fue posible ingresar al módulo estado de cuentas</t>
+  </si>
+  <si>
+    <t>Observación para la novedad en ingresar estados cuentas</t>
+  </si>
+  <si>
+    <t>Formato de fecha para el filtro en BOFA</t>
+  </si>
+  <si>
+    <t>dd-MMM-yyyy</t>
+  </si>
+  <si>
+    <t>ObservationGenerateAccountsReport</t>
+  </si>
+  <si>
+    <t>No fue posible generar el informe de cuentas</t>
+  </si>
+  <si>
+    <t>Observación para la novedad en generar informe cuentas</t>
+  </si>
+  <si>
+    <t>ObservationExistAccount</t>
+  </si>
+  <si>
+    <t>No existen movimientos para esta cuenta</t>
+  </si>
+  <si>
+    <t>Observación para la novedad en validar existencia cuenta</t>
+  </si>
+  <si>
+    <t>ObservationObtainedMovements</t>
+  </si>
+  <si>
+    <t>No fue posible obtener los movimiento para esta cuenta</t>
+  </si>
+  <si>
+    <t>Observación para la novedad en obtener movimientos</t>
+  </si>
+  <si>
+    <t>SheetsTemplate</t>
+  </si>
+  <si>
+    <t>Hoja1</t>
+  </si>
+  <si>
+    <t>Nombre de la hoja del archivo plantilla utilizado para registrar los movimientos de cuentas del banco BOFA</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>Plantilla BOFA.xlsx</t>
+  </si>
+  <si>
+    <t>Nombre del archivo plantilla utilizado para identificar los bancos durante el proceso</t>
+  </si>
+  <si>
+    <t>Nombre de la hoja del archivo utilizado para registrar los movimientos de cuentas del banco BOFA</t>
+  </si>
+  <si>
+    <t>CELDAS EXCEL</t>
+  </si>
+  <si>
+    <t>CellAccount</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>CellNameSociety</t>
+  </si>
+  <si>
+    <t>CellCurrency</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>Celda donde se escribe el número de cuenta</t>
+  </si>
+  <si>
+    <t>Celda donde se escribe el nombre de la sociedad</t>
+  </si>
+  <si>
+    <t>Celda donde se escribe el la moneda</t>
+  </si>
+  <si>
+    <t>ObservationGenerateMovementReport</t>
+  </si>
+  <si>
+    <t>No fue posible generar el reporte de movimientos</t>
+  </si>
+  <si>
+    <t>Observación para la novedad en generar reporte movimientos</t>
+  </si>
+  <si>
+    <t>FileDownload</t>
+  </si>
+  <si>
+    <t>C:\Users\jorge\Downloads</t>
+  </si>
+  <si>
+    <t>Carpeta donde se almacenaran los archivos descargados</t>
+  </si>
+  <si>
+    <t>No fue posible iniciar sesión en el banco SCOTIABANK</t>
+  </si>
+  <si>
+    <t>Observación para la novedad en iniciar sesión en SCOTIABANK</t>
+  </si>
+  <si>
+    <t>ObservationSelectCompany</t>
+  </si>
+  <si>
+    <t>No fue posible seleccionar la empresa</t>
+  </si>
+  <si>
+    <t>Observación para la novedad en seleccionar empresa</t>
+  </si>
+  <si>
+    <t>ObservationEnterPerformSearch</t>
+  </si>
+  <si>
+    <t>No fue posible ingresar a realizar búsqueda</t>
+  </si>
+  <si>
+    <t>Observación para la novedad en ingresar realizar búsqueda</t>
+  </si>
+  <si>
+    <t>.zip</t>
+  </si>
+  <si>
+    <t>yyyyMMdd</t>
+  </si>
+  <si>
+    <t>InitialIndexDate</t>
+  </si>
+  <si>
+    <t>Índice inicial de la fecha en los archivos de cuentas</t>
+  </si>
+  <si>
+    <t>DateQuantityCharacters</t>
+  </si>
+  <si>
+    <t>Cantidad de caracteres de la fecha en los archivos de cuenta</t>
+  </si>
+  <si>
+    <t>ObservationSortMovementFile</t>
+  </si>
+  <si>
+    <t>No fue posible ordenar los archivos con los movimientos</t>
+  </si>
+  <si>
+    <t>Observación para la novedad en ordenar archivos movimientos</t>
+  </si>
+  <si>
+    <t>No fue posible iniciar sesión en el banco INTERBANK</t>
+  </si>
+  <si>
+    <t>Observación para la novedad en iniciar sesión en INTERBANK</t>
+  </si>
+  <si>
+    <t>Formato de fecha para el filtro en SCOTIABANK</t>
+  </si>
+  <si>
+    <t>Formato de fecha para el filtro en INTERBANK</t>
+  </si>
+  <si>
+    <t>ObservationCosultationMovements</t>
+  </si>
+  <si>
+    <t>No fue posible ingresa a la consulta de movimientos</t>
+  </si>
+  <si>
+    <t>Observación para la novedad en consultar movimientos</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>TXT</t>
+  </si>
+  <si>
+    <t>Formato de los movimientos bancarios</t>
+  </si>
+  <si>
+    <t>Movimientos_</t>
+  </si>
+  <si>
+    <t>NameFile</t>
+  </si>
+  <si>
+    <t>Nombre del arhivo a descargar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -710,6 +1053,18 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -725,7 +1080,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -733,11 +1088,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -754,6 +1124,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1068,10 +1443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1020"/>
+  <dimension ref="A1:Z1021"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1129,10 +1504,10 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
@@ -1173,357 +1548,367 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B7">
         <v>-1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" t="s">
         <v>164</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="5" t="s">
+      <c r="A10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B10" t="s">
+        <v>269</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="A11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:26">
       <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" t="s">
         <v>107</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="5" t="s">
+    <row r="14" spans="1:26">
+      <c r="A14" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
-      <c r="A14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>110</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A18" s="5" t="s">
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A19" t="s">
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A20" t="s">
         <v>44</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A20" s="5" t="s">
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>139</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A26" t="s">
         <v>91</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A26" s="5" t="s">
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A27" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>144</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>143</v>
+        <v>84</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A32" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A32" s="5" t="s">
+    <row r="33" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A33" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B33" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A33" t="s">
-        <v>113</v>
-      </c>
-      <c r="B33" t="s">
-        <v>114</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1">
       <c r="A34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A35" t="s">
         <v>116</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>117</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A35" s="5" t="s">
+    <row r="36" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A36" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B36" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A36" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
       <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A39" t="s">
         <v>68</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="40" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="41" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="42" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2505,6 +2890,7 @@
     <row r="1018" ht="14.25" customHeight="1"/>
     <row r="1019" ht="14.25" customHeight="1"/>
     <row r="1020" ht="14.25" customHeight="1"/>
+    <row r="1021" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2621,6 +3007,104 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14841542-6305-41C9-85CA-89F7275592D2}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4848,8 +5332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6105AEF-8D59-4D1F-82F7-FA9774AAE2AC}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4878,40 +5362,40 @@
         <v>130</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>131</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" t="s">
         <v>167</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4938,35 +5422,35 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" t="s">
         <v>153</v>
-      </c>
-      <c r="B10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C10" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4981,8 +5465,8 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>121</v>
+      <c r="A12" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B12" t="s">
         <v>123</v>
@@ -5007,7 +5491,7 @@
         <v>127</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>128</v>
@@ -5015,68 +5499,68 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" t="s">
         <v>149</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" t="s">
         <v>155</v>
       </c>
-      <c r="B16" t="s">
-        <v>156</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" t="s">
         <v>157</v>
       </c>
-      <c r="B17" t="s">
-        <v>158</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" t="s">
         <v>170</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5086,10 +5570,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF07380-AB7C-4611-B2F7-BAA33A6D9F7F}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5111,40 +5595,125 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="C5" s="2"/>
+      <c r="B12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>175</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5153,10 +5722,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456D111F-3FBC-4781-9A5F-CF893A470F99}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A10" sqref="A10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5178,17 +5747,114 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="A2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="C4" s="2"/>
+      <c r="A4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>208</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5197,10 +5863,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED23162-3106-4F67-B7FE-E841231E89D1}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A22" sqref="A22:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5222,29 +5888,246 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="C4" s="2"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>234</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>239</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>245</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>265</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>206</v>
+      </c>
+      <c r="B23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>208</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5253,10 +6136,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34BA6D60-B9B2-4B12-9E15-232F21A53882}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5278,29 +6161,169 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B4">
+        <v>43</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B7" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="C4" s="2"/>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>273</v>
+      </c>
+      <c r="B10" t="s">
+        <v>274</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>276</v>
+      </c>
+      <c r="B11" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B16" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>208</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5309,10 +6332,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{623D7247-366F-45EB-A2A2-2373B4EC9D9A}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5334,29 +6357,114 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B7" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="C4" s="2"/>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B10" t="s">
+        <v>293</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>192</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Configuración/Config.xlsx
+++ b/Data/Configuración/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\Documents\ALICORP_ExtractosBancariosDispatcher01\Configuración\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBC3C3C-E37D-40A7-A112-B4A18B5C5B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CA32BE-327C-4044-AF5B-BA14706A572D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="893" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="893" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="361">
   <si>
     <t>Name</t>
   </si>
@@ -1023,6 +1023,189 @@
   </si>
   <si>
     <t>Nombre del arhivo a descargar</t>
+  </si>
+  <si>
+    <t>QuantityCharacters</t>
+  </si>
+  <si>
+    <t>Cantidaad de los últimos caracteres que se tomaran del número de cuenta</t>
+  </si>
+  <si>
+    <t>DateFormatFile</t>
+  </si>
+  <si>
+    <t>ddMMyyyy</t>
+  </si>
+  <si>
+    <t>Formato de fecha para el el archivo descargado</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Excel Movimientos.xlsx</t>
+  </si>
+  <si>
+    <t>RANGO EXCEL</t>
+  </si>
+  <si>
+    <t>B13</t>
+  </si>
+  <si>
+    <t>Rango del archivo con la información del valor de la cuenta</t>
+  </si>
+  <si>
+    <t>RangeAccount</t>
+  </si>
+  <si>
+    <t>SheetsAccount</t>
+  </si>
+  <si>
+    <t>Sheet0</t>
+  </si>
+  <si>
+    <t>Nombre de la hoja del archivo utilizado para obtener el valor de la cuenta</t>
+  </si>
+  <si>
+    <t>Nombre del archivo utilizado para obtener el valor de la cuenta</t>
+  </si>
+  <si>
+    <t>COLUMNAS EXCEL</t>
+  </si>
+  <si>
+    <t>Día</t>
+  </si>
+  <si>
+    <t>DateFormatExcel</t>
+  </si>
+  <si>
+    <t>Formato de fecha para el filtro en el archivo con la información de las cuentas</t>
+  </si>
+  <si>
+    <t>ColumnBalance</t>
+  </si>
+  <si>
+    <t>ColumnDay</t>
+  </si>
+  <si>
+    <t>Saldo</t>
+  </si>
+  <si>
+    <t>Columna del archivo con la información del valor de la cuenta para filtrar por fecha</t>
+  </si>
+  <si>
+    <t>Columna del archivo con la información del valor de la cuenta para obtener el saldo</t>
+  </si>
+  <si>
+    <t>InitialIndexBalance</t>
+  </si>
+  <si>
+    <t>DateQuantityCharactersBalance</t>
+  </si>
+  <si>
+    <t>Índice inicial del saldo en los archivos de cuentas</t>
+  </si>
+  <si>
+    <t>Cantidad de caracteres del saldo en los archivos de cuenta</t>
+  </si>
+  <si>
+    <t>No fue posible iniciar sesión en el banco BANBIF</t>
+  </si>
+  <si>
+    <t>Observación para la novedad en iniciar sesión en BANBIF</t>
+  </si>
+  <si>
+    <t>ObservationEnterPositionQuery</t>
+  </si>
+  <si>
+    <t>No fue posible ingresar a la consulta de posiciones</t>
+  </si>
+  <si>
+    <t>Observación para la novedad en ingresar consulta posición</t>
+  </si>
+  <si>
+    <t>ObservationSelectAccount</t>
+  </si>
+  <si>
+    <t>No fue posible seleccionar la cuenta</t>
+  </si>
+  <si>
+    <t>Observación para la novedad en seleccionar cuenta</t>
+  </si>
+  <si>
+    <t>dd/MM/yy</t>
+  </si>
+  <si>
+    <t>TEXT 3 (Nro. de Operación)</t>
+  </si>
+  <si>
+    <t>FileFormat</t>
+  </si>
+  <si>
+    <t>Formato del archivo a descargar</t>
+  </si>
+  <si>
+    <t>InitialIndexDebit</t>
+  </si>
+  <si>
+    <t>DebitQuantityCharacters</t>
+  </si>
+  <si>
+    <t>Índice inicial del debito en los archivos de cuentas</t>
+  </si>
+  <si>
+    <t>Cantidad de caracteres del debito en los archivos de cuenta</t>
+  </si>
+  <si>
+    <t>InitialIndexCredit</t>
+  </si>
+  <si>
+    <t>CreditQuantityCharacters</t>
+  </si>
+  <si>
+    <t>Índice inicial del credito en los archivos de cuentas</t>
+  </si>
+  <si>
+    <t>Cantidad de caracteres del credito en los archivos de cuenta</t>
+  </si>
+  <si>
+    <t>BalanceQuantityCharacters</t>
+  </si>
+  <si>
+    <t>No fue posible iniciar sesión en el banco SANTANDER</t>
+  </si>
+  <si>
+    <t>Observación para la novedad en iniciar sesión en SANTANDER</t>
+  </si>
+  <si>
+    <t>Formato de fecha para el filtro en SANTANDER</t>
+  </si>
+  <si>
+    <t>No fue posible consultar los movimientos</t>
+  </si>
+  <si>
+    <t>.csv</t>
+  </si>
+  <si>
+    <t>SubjectEmailFinish</t>
+  </si>
+  <si>
+    <t>Finalización Ejecución</t>
+  </si>
+  <si>
+    <t>Asunto de correo para la finalización de ejecución del asistente virual</t>
+  </si>
+  <si>
+    <t>BodyEmailFinish</t>
+  </si>
+  <si>
+    <t>Cuerpo de correo para la finalización de ejecución del asistente virual</t>
+  </si>
+  <si>
+    <t>Cordial saludo
+Finalizo la ejecución de la automatización.
+Asistente Virtual
+Extractos Bancarios Dispatcher 01</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1129,6 +1312,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1443,10 +1627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1021"/>
+  <dimension ref="A1:Z1023"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1767,150 +1951,170 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A27" s="5" t="s">
+      <c r="A27" t="s">
+        <v>355</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A28" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B28" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>140</v>
+        <v>52</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>143</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>142</v>
+        <v>84</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A33" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A33" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1">
       <c r="A34" t="s">
+        <v>358</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A35" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A36" t="s">
         <v>113</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A35" t="s">
-        <v>116</v>
-      </c>
-      <c r="B35" t="s">
-        <v>117</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A36" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A38" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>67</v>
+      <c r="A38" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
       <c r="A39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A41" t="s">
         <v>68</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B41" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="41" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="42" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="43" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="44" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2891,6 +3095,8 @@
     <row r="1019" ht="14.25" customHeight="1"/>
     <row r="1020" ht="14.25" customHeight="1"/>
     <row r="1021" ht="14.25" customHeight="1"/>
+    <row r="1022" ht="14.25" customHeight="1"/>
+    <row r="1023" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2900,10 +3106,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9AF68A-C5F8-411B-B72A-693BF6CB2B88}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2925,29 +3131,246 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>341</v>
+      </c>
+      <c r="B7">
+        <v>72</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B8">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B9">
+        <v>89</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B10">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B11">
+        <v>106</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>349</v>
+      </c>
+      <c r="B12">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B14" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="C4" s="2"/>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B16" t="s">
+        <v>329</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>331</v>
+      </c>
+      <c r="B17" t="s">
+        <v>332</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>334</v>
+      </c>
+      <c r="B18" t="s">
+        <v>335</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>285</v>
+      </c>
+      <c r="B21" t="s">
+        <v>286</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>206</v>
+      </c>
+      <c r="B23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>208</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2956,10 +3379,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770E6FAC-F7F4-4149-ACAD-7471CDD9C76C}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2981,29 +3404,147 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="C4" s="2"/>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>334</v>
+      </c>
+      <c r="B9" t="s">
+        <v>335</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B10" t="s">
+        <v>353</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>206</v>
+      </c>
+      <c r="B14" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>208</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3113,7 +3654,7 @@
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3163,7 +3704,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>24</v>
@@ -5333,7 +5874,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5370,7 +5911,7 @@
         <v>160</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>161</v>
@@ -5865,8 +6406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED23162-3106-4F67-B7FE-E841231E89D1}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD23"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6136,10 +6677,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34BA6D60-B9B2-4B12-9E15-232F21A53882}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A24" sqref="A24:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6173,155 +6714,287 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>318</v>
       </c>
       <c r="B3" t="s">
-        <v>279</v>
+        <v>130</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>168</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>281</v>
-      </c>
-      <c r="B4">
-        <v>43</v>
+        <v>166</v>
+      </c>
+      <c r="B4" t="s">
+        <v>279</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>282</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B5">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>283</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="5" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B7">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B8">
+        <v>75</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B19" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="5" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B21" t="s">
         <v>271</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>273</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B22" t="s">
         <v>274</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>276</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B23" t="s">
         <v>277</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>191</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B24" t="s">
         <v>243</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>169</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B25" t="s">
         <v>170</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>285</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B26" t="s">
         <v>286</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>179</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B27" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>206</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B28" t="s">
         <v>207</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>208</v>
       </c>
     </row>
@@ -6332,10 +7005,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{623D7247-366F-45EB-A2A2-2373B4EC9D9A}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6369,101 +7042,156 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B3" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>295</v>
       </c>
       <c r="B4" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>168</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>299</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>298</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" t="s">
-        <v>104</v>
+      <c r="A7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>99</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>288</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>293</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>191</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>243</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B16" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
